--- a/Supplementary tables/Table S2 Overlapped genes in male and female CRC patients revealed by Gaussian mixed model and variable importance analysis (VMIP).xlsx
+++ b/Supplementary tables/Table S2 Overlapped genes in male and female CRC patients revealed by Gaussian mixed model and variable importance analysis (VMIP).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxy03\Research\ferr\Draft\ferrdraft022025\Supplementary tables\st new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongyan\Desktop\Submission\Supplementary tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20872999-F0DE-425B-9DAF-B425684F43F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6CA04-5F6E-44B7-B468-D8B7FFCA12C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="3" r:id="rId1"/>
@@ -252,8 +252,17 @@
     <t>Lower and Upper: the lower and upper bounds of the confidence interval for beta.</t>
   </si>
   <si>
+    <t xml:space="preserve">Sheet I: Overlapped genes in male CRC patients revealed by GMM and VMIP. Colon tumor tissues from male patients: KRAS mutant tumors (n = 97), KRAS wild-type tumors (n = 166, GSE39582). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheet II: Overlapped genes in female CRC revealed by GMM and VMIP. Colon tumor tissues from female patients: KRAS mutant tumors (n = 86), KRAS wild-type tumors (n = 131, GSE39582). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permutation p-value and beta-value assessment showed the gene variance between KRAS mutant CRCs and KRAS wild-type CRCs. </t>
+  </si>
+  <si>
     <r>
-      <t>Table S6. Overlapped genes in male and female CRC patients validated by Gaussian mixed model (GMM) and variable importance analysis (VMIP).</t>
+      <t>Table S2. Overlapped genes in male and female CRC patients validated by Gaussian mixed model (GMM) and variable importance analysis (VMIP).</t>
     </r>
     <r>
       <rPr>
@@ -264,15 +273,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet I: Overlapped genes in male CRC patients revealed by GMM and VMIP. Colon tumor tissues from male patients: KRAS mutant tumors (n = 97), KRAS wild-type tumors (n = 166, GSE39582). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheet II: Overlapped genes in female CRC revealed by GMM and VMIP. Colon tumor tissues from female patients: KRAS mutant tumors (n = 86), KRAS wild-type tumors (n = 131, GSE39582). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permutation p-value and beta-value assessment showed the gene variance between KRAS mutant CRCs and KRAS wild-type CRCs. </t>
   </si>
 </sst>
 </file>
@@ -782,10 +782,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1145,29 +1145,29 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1183,12 +1183,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="15.6328125" customWidth="1"/>
+    <col min="1" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
@@ -1199,7 +1199,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
@@ -2097,23 +2097,23 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="16.90625" customWidth="1"/>
+    <col min="1" max="7" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>69</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
@@ -2135,7 +2135,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -2146,7 +2146,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>48</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>49</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>57</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2836,7 +2836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
